--- a/src/models/data/time_schedule.xlsx
+++ b/src/models/data/time_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB51FD-D408-4623-A878-50F78B757AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EDA5ED-41C1-400C-8700-9B2681E4E44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>time_start</t>
   </si>
@@ -96,6 +96,57 @@
   </si>
   <si>
     <t>17:30</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>5d1f76b7-8615-46f8-89e4-1a38523a49ac</t>
+  </si>
+  <si>
+    <t>7570571e-3695-4ad0-8ebf-43dbc20e3fda</t>
+  </si>
+  <si>
+    <t>385442c3-ba85-43de-a35f-391decc12354</t>
+  </si>
+  <si>
+    <t>c92e3f84-3c4e-4432-9869-880694f0cba9</t>
+  </si>
+  <si>
+    <t>0e500eec-9c9e-47b1-ab48-074fe2c8139e</t>
+  </si>
+  <si>
+    <t>55a38928-cc99-4b04-8684-a7263e3176dd</t>
+  </si>
+  <si>
+    <t>7cf54370-d34e-4801-ab05-30baaff41c9f</t>
+  </si>
+  <si>
+    <t>fdf32377-5b49-4f58-9c97-80df5fcc9fb9</t>
+  </si>
+  <si>
+    <t>ba4cc5ed-4152-4646-be57-eef3814f9e71</t>
+  </si>
+  <si>
+    <t>814150bb-7523-4e58-a09e-e613a6c4c83d</t>
+  </si>
+  <si>
+    <t>e84d41b7-7783-4b0c-acc5-ca14f71e7369</t>
+  </si>
+  <si>
+    <t>440e2ef0-76fa-4892-9187-0326ea77629d</t>
+  </si>
+  <si>
+    <t>d2441e16-7e86-42f8-a9d2-2a9a77a04e04</t>
+  </si>
+  <si>
+    <t>122b5de4-ebd6-421d-b141-c9d3a93b0488</t>
+  </si>
+  <si>
+    <t>3a406d3d-69e6-4652-a382-6af241a94dda</t>
+  </si>
+  <si>
+    <t>6e5a0a9a-6794-4127-bf5c-4927bc7d2279</t>
   </si>
 </sst>
 </file>
@@ -137,9 +188,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,157 +471,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/models/data/time_schedule.xlsx
+++ b/src/models/data/time_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EDA5ED-41C1-400C-8700-9B2681E4E44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B57A5-6E9E-43C3-A9D6-30B9DB54DB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>time_start</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>6e5a0a9a-6794-4127-bf5c-4927bc7d2279</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
   </si>
 </sst>
 </file>
@@ -471,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +499,7 @@
     <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -500,8 +509,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -511,8 +523,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -522,8 +537,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -533,8 +551,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -544,8 +565,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -555,8 +579,11 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -566,8 +593,11 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -577,8 +607,11 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -588,8 +621,11 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -599,8 +635,11 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -610,8 +649,11 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -621,8 +663,11 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -632,8 +677,11 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -643,8 +691,11 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -654,8 +705,11 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -665,8 +719,11 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -675,6 +732,9 @@
       </c>
       <c r="C17" t="s">
         <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/models/data/time_schedule.xlsx
+++ b/src/models/data/time_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B57A5-6E9E-43C3-A9D6-30B9DB54DB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D133D80-0F9D-4FD5-9632-161330A83A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2028" yWindow="1944" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>time_start</t>
   </si>
@@ -47,108 +47,33 @@
     <t>8:00</t>
   </si>
   <si>
-    <t>8:30</t>
-  </si>
-  <si>
     <t>9:00</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>9:30</t>
-  </si>
-  <si>
     <t>11:00</t>
   </si>
   <si>
     <t>12:00</t>
   </si>
   <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
     <t>14:00</t>
   </si>
   <si>
     <t>15:00</t>
   </si>
   <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
     <t>16:00</t>
   </si>
   <si>
-    <t>16:30</t>
-  </si>
-  <si>
     <t>17:00</t>
   </si>
   <si>
-    <t>17:30</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>5d1f76b7-8615-46f8-89e4-1a38523a49ac</t>
-  </si>
-  <si>
-    <t>7570571e-3695-4ad0-8ebf-43dbc20e3fda</t>
-  </si>
-  <si>
-    <t>385442c3-ba85-43de-a35f-391decc12354</t>
-  </si>
-  <si>
-    <t>c92e3f84-3c4e-4432-9869-880694f0cba9</t>
-  </si>
-  <si>
-    <t>0e500eec-9c9e-47b1-ab48-074fe2c8139e</t>
-  </si>
-  <si>
-    <t>55a38928-cc99-4b04-8684-a7263e3176dd</t>
-  </si>
-  <si>
-    <t>7cf54370-d34e-4801-ab05-30baaff41c9f</t>
-  </si>
-  <si>
-    <t>fdf32377-5b49-4f58-9c97-80df5fcc9fb9</t>
-  </si>
-  <si>
-    <t>ba4cc5ed-4152-4646-be57-eef3814f9e71</t>
-  </si>
-  <si>
-    <t>814150bb-7523-4e58-a09e-e613a6c4c83d</t>
-  </si>
-  <si>
-    <t>e84d41b7-7783-4b0c-acc5-ca14f71e7369</t>
-  </si>
-  <si>
-    <t>440e2ef0-76fa-4892-9187-0326ea77629d</t>
-  </si>
-  <si>
-    <t>d2441e16-7e86-42f8-a9d2-2a9a77a04e04</t>
-  </si>
-  <si>
-    <t>122b5de4-ebd6-421d-b141-c9d3a93b0488</t>
-  </si>
-  <si>
-    <t>3a406d3d-69e6-4652-a382-6af241a94dda</t>
-  </si>
-  <si>
-    <t>6e5a0a9a-6794-4127-bf5c-4927bc7d2279</t>
-  </si>
-  <si>
     <t>session</t>
   </si>
   <si>
@@ -156,6 +81,63 @@
   </si>
   <si>
     <t>Afternoon</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>4e210241-9d4a-4288-92de-1d09e61e0924</t>
+  </si>
+  <si>
+    <t>33d1667f-5ba1-413c-a459-56eef4e84bd1</t>
+  </si>
+  <si>
+    <t>3c0fb952-f695-4cf8-9013-8dc25cbcaeef</t>
+  </si>
+  <si>
+    <t>422af1a8-3b2a-4609-a0b0-63cb195697c0</t>
+  </si>
+  <si>
+    <t>e6ef3633-6655-4982-bf7a-282a8e2ab380</t>
+  </si>
+  <si>
+    <t>69ce57db-5cae-4cae-a5ae-413926ef6076</t>
+  </si>
+  <si>
+    <t>75962438-63e4-4fa8-a40c-a137a5c84e57</t>
+  </si>
+  <si>
+    <t>f1b9cb9a-80e3-49f1-ac76-84bbf1d6d98a</t>
+  </si>
+  <si>
+    <t>3c4ef237-2ed3-4040-9bc2-45fa03d6a63d</t>
+  </si>
+  <si>
+    <t>9dc9c0ca-a3e9-44c3-a3ba-b0504d77610a</t>
+  </si>
+  <si>
+    <t>bf0d6772-9847-40e7-bde2-3bbb148f7659</t>
+  </si>
+  <si>
+    <t>9c7b0760-41ca-4c51-8795-e45a0ffb73b1</t>
   </si>
 </sst>
 </file>
@@ -197,8 +179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D13" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +485,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -510,12 +494,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
+      <c r="A2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -524,12 +508,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -538,203 +522,147 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
         <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
